--- a/Test.xlsx
+++ b/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951C9455-8E60-417E-A924-F9732E2CC755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B7F2FF-602D-4FE1-8993-D3EC6F050854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>First name</t>
   </si>
@@ -39,6 +39,12 @@
     <t>UNumber</t>
   </si>
   <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
     <t>Bronk</t>
   </si>
   <si>
@@ -48,10 +54,16 @@
     <t>U1234-5678</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Cat</t>
   </si>
   <si>
     <t>Whiskers</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Doggo</t>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,7 +435,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,38 +445,62 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>43218765</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B7F2FF-602D-4FE1-8993-D3EC6F050854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtas\Documents\GitHub\File-automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181E1875-CF7F-41A2-9A14-9EC71D3E1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1550" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>First name</t>
   </si>
@@ -73,13 +78,22 @@
   </si>
   <si>
     <t>U87654321</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Worm</t>
+  </si>
+  <si>
+    <t>U43456346</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,18 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -469,7 +483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -486,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -501,6 +515,23 @@
       </c>
       <c r="E4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
